--- a/Usefull-SoftwaresAndTools.xlsx
+++ b/Usefull-SoftwaresAndTools.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.savarian\source\repos\sav68\best-practices-after-new-os\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.savarian\source\repos\sav68\best-practices-for-fresh-os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53571969-13BD-4200-9586-BE9FAEA9B477}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB257A-7302-4EE2-AAA2-FAD64C1C750B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Frameworks" sheetId="3" r:id="rId2"/>
-    <sheet name="Info" sheetId="4" r:id="rId3"/>
+    <sheet name="Windows Tools" sheetId="5" r:id="rId2"/>
+    <sheet name="Frameworks" sheetId="3" r:id="rId3"/>
+    <sheet name="Info" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="129">
   <si>
     <t>Home Users</t>
   </si>
@@ -308,9 +309,6 @@
     <t>GitHub Desktop</t>
   </si>
   <si>
-    <t>Adobe XE</t>
-  </si>
-  <si>
     <t>Xampp</t>
   </si>
   <si>
@@ -384,6 +382,39 @@
   </si>
   <si>
     <t>Linux (Kali) WSL</t>
+  </si>
+  <si>
+    <t>Adobe XD</t>
+  </si>
+  <si>
+    <t>Os Tools</t>
+  </si>
+  <si>
+    <t>ldp.exe</t>
+  </si>
+  <si>
+    <t>RSAT</t>
+  </si>
+  <si>
+    <t>in win  10 1809 already exsit</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Ldap Query</t>
+  </si>
+  <si>
+    <t>How to install</t>
+  </si>
+  <si>
+    <t>already exsit</t>
+  </si>
+  <si>
+    <t>Remote Administration tools</t>
   </si>
 </sst>
 </file>
@@ -474,7 +505,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -595,27 +641,39 @@
     <sortCondition ref="A2:A76"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="11" xr3:uid="{73182DE8-4519-4C98-81DD-7CB53560BD58}" name=" GId" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{B2F26F45-D017-4AEE-9258-B2E0FED3475F}" name="  Category" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{475D00EE-DBF3-4509-B199-766ACE012349}" name="Platform" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{FECD2DAB-AE55-4A73-9EA3-393E66C65DED}" name="Cost" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{DBCCBA0F-2CC0-41FC-B36B-D32C783A1346}" name="Softwares" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{55A75063-0F04-4048-A7BC-5431239C2401}" name="Home Users" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CB83FC61-5871-4519-895B-0CED840B1379}" name="Office Users" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{FF70DF90-2E81-4F95-9AB3-2724E7509C70}" name="Accountant Users" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{74804E52-9F80-46CE-A575-5114D5B9F303}" name=".Net Developers" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{CF1DB752-52A5-4699-9735-CDBCC0C5F30B}" name="Java Developers" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{C1CEC3D5-8BF0-40AB-9FB9-8FB6429B4D41}" name="Web Develoeprs" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{15D396CA-877E-4B01-85C0-C69A4CF9ECF6}" name="BI Developer" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E487DF67-D708-4530-8F4D-881AEFA4F1F2}" name="Designer" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{1AA01AC2-D46F-49D6-BDE3-8A1D305E0461}" name="Network Admin" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{7CA4C263-95CB-4552-8825-A73CBBFC7E2D}" name="SysAdmin" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{73182DE8-4519-4C98-81DD-7CB53560BD58}" name=" GId" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{B2F26F45-D017-4AEE-9258-B2E0FED3475F}" name="  Category" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{475D00EE-DBF3-4509-B199-766ACE012349}" name="Platform" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{FECD2DAB-AE55-4A73-9EA3-393E66C65DED}" name="Cost" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DBCCBA0F-2CC0-41FC-B36B-D32C783A1346}" name="Softwares" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{55A75063-0F04-4048-A7BC-5431239C2401}" name="Home Users" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CB83FC61-5871-4519-895B-0CED840B1379}" name="Office Users" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FF70DF90-2E81-4F95-9AB3-2724E7509C70}" name="Accountant Users" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{74804E52-9F80-46CE-A575-5114D5B9F303}" name=".Net Developers" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{CF1DB752-52A5-4699-9735-CDBCC0C5F30B}" name="Java Developers" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{C1CEC3D5-8BF0-40AB-9FB9-8FB6429B4D41}" name="Web Develoeprs" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{15D396CA-877E-4B01-85C0-C69A4CF9ECF6}" name="BI Developer" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E487DF67-D708-4530-8F4D-881AEFA4F1F2}" name="Designer" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{1AA01AC2-D46F-49D6-BDE3-8A1D305E0461}" name="Network Admin" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{7CA4C263-95CB-4552-8825-A73CBBFC7E2D}" name="SysAdmin" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{835CA36C-BA76-4A52-8905-0C209ED5F1F3}" name="Table4" displayName="Table4" ref="A1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:C3" xr:uid="{BC2E195B-CBB5-46C1-9E05-9D411C78416B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D5BC0E75-18C1-478C-860C-EFAECB0DFF68}" name="Tool" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D792B535-B8BD-4DFB-9ACF-9FCCC39DB35B}" name="Description" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C7501060-2E4A-4F33-ADF0-D9BC31EE5580}" name="How to install" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7405257-7B75-4F33-B8F0-CC23F0AF4D6B}" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
   <autoFilter ref="A1:B8" xr:uid="{FA112C98-C571-4C5E-818B-DFF9BFBBEBE7}"/>
   <tableColumns count="2">
@@ -626,7 +684,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D7B114B-AB3C-482A-A369-710F886218D3}" name="جدول2" displayName="جدول2" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{ECAAD6F1-1A13-41A4-8D3B-099906EFE406}"/>
   <tableColumns count="2">
@@ -936,9 +994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39B217-E170-403E-8CBC-8ED6F3D0F392}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J61" sqref="J61"/>
+      <selection pane="topRight" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1037,7 @@
     </row>
     <row r="2" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>76</v>
@@ -1015,7 +1073,7 @@
         <v>91</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>6</v>
@@ -1170,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>80</v>
@@ -1199,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>80</v>
@@ -1228,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>80</v>
@@ -1257,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>80</v>
@@ -1284,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>80</v>
@@ -1311,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>80</v>
@@ -1340,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>80</v>
@@ -1367,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>80</v>
@@ -1394,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>80</v>
@@ -1421,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>80</v>
@@ -1448,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>80</v>
@@ -1477,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>80</v>
@@ -1506,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>80</v>
@@ -1533,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>80</v>
@@ -1560,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>80</v>
@@ -1587,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>80</v>
@@ -1616,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>80</v>
@@ -1643,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>80</v>
@@ -1670,7 +1728,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>80</v>
@@ -1679,7 +1737,7 @@
         <v>66</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1697,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>80</v>
@@ -1706,7 +1764,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1724,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>80</v>
@@ -1733,7 +1791,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1751,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>80</v>
@@ -1778,7 +1836,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>80</v>
@@ -1805,7 +1863,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>80</v>
@@ -1832,7 +1890,7 @@
         <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>80</v>
@@ -1859,14 +1917,14 @@
         <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -1884,7 +1942,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>81</v>
@@ -1911,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>80</v>
@@ -1938,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>81</v>
@@ -1965,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>80</v>
@@ -1994,7 +2052,7 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>80</v>
@@ -2021,7 +2079,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>80</v>
@@ -2048,7 +2106,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>80</v>
@@ -2075,7 +2133,7 @@
         <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>80</v>
@@ -2102,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>80</v>
@@ -2129,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>80</v>
@@ -2156,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>80</v>
@@ -2183,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>80</v>
@@ -2210,7 +2268,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>80</v>
@@ -2237,7 +2295,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>80</v>
@@ -2264,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>81</v>
@@ -2291,7 +2349,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>80</v>
@@ -2318,7 +2376,7 @@
         <v>13</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>80</v>
@@ -2345,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>80</v>
@@ -2354,7 +2412,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2372,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>80</v>
@@ -2381,7 +2439,7 @@
         <v>67</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -2399,7 +2457,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>80</v>
@@ -2408,7 +2466,7 @@
         <v>67</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -2426,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>80</v>
@@ -2453,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>81</v>
@@ -2462,7 +2520,7 @@
         <v>84</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2480,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>80</v>
@@ -2507,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>80</v>
@@ -2534,7 +2592,7 @@
         <v>16</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>80</v>
@@ -2561,7 +2619,7 @@
         <v>16</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>80</v>
@@ -2586,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>80</v>
@@ -2613,7 +2671,7 @@
         <v>16</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>80</v>
@@ -2640,7 +2698,7 @@
         <v>16</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>80</v>
@@ -2667,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>80</v>
@@ -2694,7 +2752,7 @@
         <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>80</v>
@@ -2721,7 +2779,7 @@
         <v>17</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>81</v>
@@ -2748,7 +2806,7 @@
         <v>17</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>80</v>
@@ -2775,7 +2833,7 @@
         <v>17</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>80</v>
@@ -2802,7 +2860,7 @@
         <v>17</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>81</v>
@@ -2829,7 +2887,7 @@
         <v>20</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>80</v>
@@ -2856,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>80</v>
@@ -2865,7 +2923,7 @@
         <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2883,7 +2941,7 @@
         <v>20</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>80</v>
@@ -2910,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>80</v>
@@ -2937,7 +2995,7 @@
         <v>20</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>80</v>
@@ -2946,7 +3004,7 @@
         <v>66</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -2960,8 +3018,12 @@
       <c r="O71" s="6"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="8">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C72" s="9" t="s">
         <v>81</v>
       </c>
@@ -2969,7 +3031,7 @@
         <v>67</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -2983,8 +3045,12 @@
       <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="2"/>
+      <c r="A73" s="8">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C73" s="9" t="s">
         <v>81</v>
       </c>
@@ -2992,7 +3058,7 @@
         <v>67</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -3006,8 +3072,12 @@
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="8">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C74" s="9" t="s">
         <v>81</v>
       </c>
@@ -3015,7 +3085,7 @@
         <v>67</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -3029,8 +3099,12 @@
       <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
-      <c r="B75" s="2"/>
+      <c r="A75" s="8">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C75" s="9" t="s">
         <v>81</v>
       </c>
@@ -3038,7 +3112,7 @@
         <v>67</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -3052,8 +3126,12 @@
       <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="8">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C76" s="9" t="s">
         <v>81</v>
       </c>
@@ -3061,7 +3139,7 @@
         <v>67</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3075,12 +3153,20 @@
       <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="5"/>
+      <c r="A77" s="8">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E77" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
@@ -3094,12 +3180,20 @@
       <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="5"/>
+      <c r="A78" s="8">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E78" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
@@ -3197,11 +3291,69 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB581A-107D-4A12-9060-A66AEDB5966C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC6C1B0-B619-44C9-9943-2723728BD505}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3251,7 +3403,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33C4B6-44AC-464F-9EA4-42BB71653A30}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Usefull-SoftwaresAndTools.xlsx
+++ b/Usefull-SoftwaresAndTools.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.savarian\source\repos\sav68\best-practices-for-fresh-os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AB257A-7302-4EE2-AAA2-FAD64C1C750B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C1813-9E27-4C46-B689-833A1E178123}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Users" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="134">
   <si>
     <t>Home Users</t>
   </si>
@@ -415,6 +415,21 @@
   </si>
   <si>
     <t>Remote Administration tools</t>
+  </si>
+  <si>
+    <t>Env Type</t>
+  </si>
+  <si>
+    <t>Production Env</t>
+  </si>
+  <si>
+    <t>Development Env</t>
+  </si>
+  <si>
+    <t>Test Env</t>
+  </si>
+  <si>
+    <t>VNC</t>
   </si>
 </sst>
 </file>
@@ -662,11 +677,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{835CA36C-BA76-4A52-8905-0C209ED5F1F3}" name="Table4" displayName="Table4" ref="A1:C3" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{835CA36C-BA76-4A52-8905-0C209ED5F1F3}" name="Table4" displayName="Table4" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C3" xr:uid="{BC2E195B-CBB5-46C1-9E05-9D411C78416B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D5BC0E75-18C1-478C-860C-EFAECB0DFF68}" name="Tool" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D792B535-B8BD-4DFB-9ACF-9FCCC39DB35B}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D5BC0E75-18C1-478C-860C-EFAECB0DFF68}" name="Tool" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D792B535-B8BD-4DFB-9ACF-9FCCC39DB35B}" name="Description" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{C7501060-2E4A-4F33-ADF0-D9BC31EE5580}" name="How to install" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -685,11 +700,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D7B114B-AB3C-482A-A369-710F886218D3}" name="جدول2" displayName="جدول2" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{ECAAD6F1-1A13-41A4-8D3B-099906EFE406}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D7B114B-AB3C-482A-A369-710F886218D3}" name="جدول2" displayName="جدول2" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6" xr:uid="{ECAAD6F1-1A13-41A4-8D3B-099906EFE406}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FBCB7650-70E9-42F1-90CC-14A7859C6DB6}" name="Priorities"/>
     <tableColumn id="2" xr3:uid="{68ABCBF8-9F98-4C15-933D-7D07DC10C254}" name="Platform"/>
+    <tableColumn id="3" xr3:uid="{6C4310AE-FB79-44E9-82E0-62E4A053C047}" name="Env Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -994,9 +1010,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39B217-E170-403E-8CBC-8ED6F3D0F392}">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3211,7 +3227,9 @@
       <c r="B79" s="2"/>
       <c r="C79" s="9"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -3294,7 +3312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB581A-107D-4A12-9060-A66AEDB5966C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3353,7 +3371,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,51 +3423,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C33C4B6-44AC-464F-9EA4-42BB71653A30}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
       <c r="B1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -3457,7 +3488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>70</v>
       </c>

--- a/Usefull-SoftwaresAndTools.xlsx
+++ b/Usefull-SoftwaresAndTools.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.savarian\source\repos\sav68\best-practices-for-fresh-os\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.savarian\source\repos\_sav68\best-practices-for-fresh-os\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C1813-9E27-4C46-B689-833A1E178123}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37540056-BAD7-4AD5-A28F-0C5D6C2DEC89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5116FFD8-FF12-4596-A8E8-EA6A71C793EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Client Users" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="141">
   <si>
     <t>Home Users</t>
   </si>
@@ -430,6 +430,27 @@
   </si>
   <si>
     <t>VNC</t>
+  </si>
+  <si>
+    <t>Soup UI</t>
+  </si>
+  <si>
+    <t>Bootstrap Studio</t>
+  </si>
+  <si>
+    <t>Enterprise Architect</t>
+  </si>
+  <si>
+    <t>Color Mania</t>
+  </si>
+  <si>
+    <t>NSwegStudio</t>
+  </si>
+  <si>
+    <t>Sapien PowerShell Studio</t>
+  </si>
+  <si>
+    <t>Ms Teams</t>
   </si>
 </sst>
 </file>
@@ -650,10 +671,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7344C024-51DA-40F2-8937-22646FE5926D}" name="Table1" displayName="Table1" ref="A2:O81" totalsRowShown="0">
-  <autoFilter ref="A2:O81" xr:uid="{273241F8-2B03-4975-8B03-92D3E2424227}"/>
-  <sortState ref="A3:O76">
-    <sortCondition ref="A2:A76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7344C024-51DA-40F2-8937-22646FE5926D}" name="Table1" displayName="Table1" ref="A2:O88" totalsRowShown="0">
+  <autoFilter ref="A2:O88" xr:uid="{273241F8-2B03-4975-8B03-92D3E2424227}"/>
+  <sortState ref="A3:O83">
+    <sortCondition ref="A2:A83"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="11" xr3:uid="{73182DE8-4519-4C98-81DD-7CB53560BD58}" name=" GId" dataDxfId="19"/>
@@ -1008,11 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E39B217-E170-403E-8CBC-8ED6F3D0F392}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E80" sqref="E80"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,12 +1634,12 @@
         <v>80</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1643,7 +1664,7 @@
         <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -1670,12 +1691,10 @@
         <v>67</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>71</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -1699,10 +1718,12 @@
         <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -1723,10 +1744,10 @@
         <v>80</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1750,10 +1771,10 @@
         <v>80</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -1768,10 +1789,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>80</v>
@@ -1780,7 +1801,7 @@
         <v>66</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1807,7 +1828,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -1822,10 +1843,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>80</v>
@@ -1834,7 +1855,7 @@
         <v>66</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -1858,10 +1879,10 @@
         <v>80</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -1888,7 +1909,7 @@
         <v>67</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1915,7 +1936,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1935,14 +1956,16 @@
       <c r="B31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -1961,13 +1984,13 @@
         <v>104</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -1982,19 +2005,17 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>80</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C33" s="9"/>
       <c r="D33" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2009,19 +2030,19 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2045,15 +2066,13 @@
         <v>80</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
-        <v>74</v>
-      </c>
+      <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -2071,13 +2090,13 @@
         <v>105</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2104,10 +2123,12 @@
         <v>66</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="G37" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -2119,19 +2140,19 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2146,10 +2167,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>80</v>
@@ -2158,7 +2179,7 @@
         <v>66</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2182,10 +2203,10 @@
         <v>80</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2212,7 +2233,7 @@
         <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2236,10 +2257,10 @@
         <v>80</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2263,10 +2284,10 @@
         <v>80</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2293,7 +2314,7 @@
         <v>67</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2320,7 +2341,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2341,13 +2362,13 @@
         <v>106</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2374,7 +2395,7 @@
         <v>67</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -2395,13 +2416,13 @@
         <v>106</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -2428,7 +2449,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -2455,9 +2476,9 @@
         <v>67</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -2482,9 +2503,9 @@
         <v>67</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2506,10 +2527,10 @@
         <v>80</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -2530,13 +2551,13 @@
         <v>106</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -2551,19 +2572,19 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -2578,19 +2599,19 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -2605,10 +2626,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>80</v>
@@ -2617,7 +2638,7 @@
         <v>66</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -2632,18 +2653,20 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -2657,19 +2680,19 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -2684,21 +2707,21 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2720,10 +2743,10 @@
         <v>80</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -2747,10 +2770,10 @@
         <v>80</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -2774,10 +2797,10 @@
         <v>80</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -2792,20 +2815,18 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -2819,7 +2840,7 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>107</v>
@@ -2831,7 +2852,7 @@
         <v>67</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -2846,7 +2867,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>107</v>
@@ -2855,10 +2876,10 @@
         <v>80</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -2873,19 +2894,19 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
@@ -2900,10 +2921,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>80</v>
@@ -2912,7 +2933,7 @@
         <v>67</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -2927,19 +2948,19 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -2954,19 +2975,19 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -2981,19 +3002,19 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -3008,10 +3029,10 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>80</v>
@@ -3020,7 +3041,7 @@
         <v>66</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -3035,19 +3056,19 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -3062,19 +3083,19 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -3089,19 +3110,19 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
@@ -3116,19 +3137,19 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -3143,19 +3164,19 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3170,19 +3191,19 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
@@ -3197,19 +3218,19 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
@@ -3223,14 +3244,22 @@
       <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="5"/>
+      <c r="A79" s="8">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E79" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F79" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
@@ -3242,12 +3271,22 @@
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="5"/>
+      <c r="A80" s="8">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
@@ -3259,12 +3298,22 @@
       <c r="O80" s="6"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="5"/>
+      <c r="A81" s="8">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
@@ -3274,6 +3323,167 @@
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="8"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="8"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="8"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3294,13 +3504,13 @@
           <x14:formula1>
             <xm:f>Info!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>F3:O81</xm:sqref>
+          <xm:sqref>F3:O88</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F57E977A-DCE3-453D-B6A7-FAA0E0182939}">
           <x14:formula1>
             <xm:f>Info!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C3:C81</xm:sqref>
+          <xm:sqref>C3:C88</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
